--- a/synth.xlsx
+++ b/synth.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Bureau\Portfolio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\OneDrive\Bureau\git-clone\portfolio-Aksel-Benneouala\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AB2BD0-1325-4DDB-B496-FE320876444E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{792B613A-3A70-4604-B933-EA193CAC5E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
   <si>
     <r>
       <rPr>
@@ -109,72 +109,6 @@
   <si>
     <r>
       <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gérer le patrimoine informatique</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Répondre aux incidents et aux demandes d’assistance et d’évolution</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Développer la présence en ligne de l’organisation</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Travailler en mode projet</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Mettre à disposition des utilisateurs un service informatique</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Organiser son développement professionnel</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
         <sz val="5"/>
         <rFont val="Lucida Sans Unicode"/>
         <family val="2"/>
@@ -630,97 +564,111 @@
     </r>
   </si>
   <si>
+    <t>NOM et prénom : Benneouala Aksel</t>
+  </si>
+  <si>
+    <t>N° candidat :</t>
+  </si>
+  <si>
+    <t>01/11/2023-27/03/2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre en production la derniere version stable de GLPI </t>
+  </si>
+  <si>
+    <t>Réalisations en milieu professionnel</t>
+  </si>
+  <si>
+    <t>14/09/2023-1/03/2024</t>
+  </si>
+  <si>
+    <t>Mission ARP et DNS Filius</t>
+  </si>
+  <si>
+    <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS                                            SESSION 2024
+Tableau de synthèse des réalisations professionnelles</t>
+  </si>
+  <si>
+    <t>20 fevrier/2022</t>
+  </si>
+  <si>
+    <t>13/12/2022 au 4 fevrier 2023</t>
+  </si>
+  <si>
+    <t>23/02/2023-01/03/2023</t>
+  </si>
+  <si>
+    <t>Fiche technique switch + guide de configuration sur gitlab</t>
+  </si>
+  <si>
+    <t>documentation putty + creation de vlan pour mon switch</t>
+  </si>
+  <si>
+    <t>Veille Technologie</t>
+  </si>
+  <si>
+    <t>13/02/2023 et mars 2024</t>
+  </si>
+  <si>
+    <t>03/01/2023 et 18/03/2024</t>
+  </si>
+  <si>
+    <t>Gérer le patrimoine informatique</t>
+  </si>
+  <si>
+    <t>Répondre aux incidents et aux demandes d’assistance et d’évolution</t>
+  </si>
+  <si>
+    <t>Développer la présence en ligne de l’organisation</t>
+  </si>
+  <si>
+    <t>Travailler en mode projet</t>
+  </si>
+  <si>
+    <t>Mettre à disposition des utilisateurs un service informatique</t>
+  </si>
+  <si>
+    <t>Organiser son développement professionnel</t>
+  </si>
+  <si>
+    <t>stage : OUVERTUR ET FERMETURE TICKET GLPI</t>
+  </si>
+  <si>
+    <t>8 janvier au 9 fevrier 2024</t>
+  </si>
+  <si>
+    <t>stage : inventaire du materiel informatique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stage :La gestion des droits d'accès dans un domaine Active Directory pour un service spécifique </t>
+  </si>
+  <si>
+    <t>Réalisations en milieu personnel</t>
+  </si>
+  <si>
+    <r>
+      <t>Procédure installation Windows</t>
+    </r>
     <r>
       <rPr>
         <b/>
         <sz val="5.5"/>
         <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Portfolio</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Installation et changement de composant d’un ordinateur</t>
-    </r>
-  </si>
-  <si>
-    <t>NOM et prénom : Benneouala Aksel</t>
-  </si>
-  <si>
-    <t>N° candidat :</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Procédure installation Windows</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="5.5"/>
-        <rFont val="Arial"/>
       </rPr>
       <t xml:space="preserve"> 10</t>
     </r>
   </si>
   <si>
-    <t>01/11/2023-27/03/2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mettre en production la derniere version stable de GLPI </t>
-  </si>
-  <si>
-    <t>Réalisations en milieu professionnel</t>
-  </si>
-  <si>
-    <t>14/09/2023-1/03/2024</t>
-  </si>
-  <si>
-    <t>Mission ARP et DNS Filius</t>
-  </si>
-  <si>
-    <t>BTS SERVICES INFORMATIQUES AUX ORGANISATIONS                                            SESSION 2024
-Tableau de synthèse des réalisations professionnelles</t>
-  </si>
-  <si>
-    <t>09/11/2023-15/03/2024</t>
-  </si>
-  <si>
-    <t>20 fevrier/2022</t>
-  </si>
-  <si>
-    <t>13/12/2022 au 4 fevrier 2023</t>
-  </si>
-  <si>
-    <t>23/02/2023-01/03/2023</t>
-  </si>
-  <si>
-    <t>Fiche technique switch + guide de configuration sur gitlab</t>
-  </si>
-  <si>
-    <t>documentation putty + creation de vlan pour mon switch</t>
-  </si>
-  <si>
-    <t>Veille Technologie</t>
-  </si>
-  <si>
-    <t>13/02/2023 et mars 2024</t>
-  </si>
-  <si>
-    <t>03/01/2023 et 18/03/2024</t>
+    <t>09/11/2023-30/03/2024</t>
+  </si>
+  <si>
+    <t>stage : Installa�on de Windows 11 sur les PC d'urgence pour des utilisateurs</t>
+  </si>
+  <si>
+    <t>Installation et amelioration de composant d’un ordinateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portfolio : https://aksil95.github.io/portfolio-Aksel-Benneouala/ </t>
   </si>
 </sst>
 </file>
@@ -933,7 +881,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -943,15 +891,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -991,6 +930,42 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1020,36 +995,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1420,10 +1365,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.796875" defaultRowHeight="13"/>
@@ -1437,375 +1382,413 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="138.75" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+    </row>
+    <row r="2" spans="1:9" ht="19" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="19" customHeight="1">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="26"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="45" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-    </row>
-    <row r="2" spans="1:9" ht="19" customHeight="1">
-      <c r="A2" s="32" t="s">
+      <c r="D4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" ht="159" customHeight="1">
+      <c r="A5" s="29"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" ht="9" customHeight="1">
+      <c r="A6" s="32"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:9" ht="19" customHeight="1">
+      <c r="A7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7">
+        <v>44576</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="19" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7">
+        <v>44564</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="20" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="32" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="19" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="7">
+        <v>44692</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="20" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="1:9" ht="19" customHeight="1">
-      <c r="A3" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="37"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="1:9" ht="45" customHeight="1">
-      <c r="A4" s="19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="159" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="1"/>
+    </row>
+    <row r="12" spans="1:9" ht="19" customHeight="1">
+      <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="B12" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="1"/>
+    </row>
+    <row r="13" spans="1:9" ht="20" customHeight="1">
+      <c r="A13" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" ht="9" customHeight="1">
-      <c r="A6" s="23"/>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="19" customHeight="1">
-      <c r="A7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="10">
-        <v>44576</v>
-      </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:9" ht="19" customHeight="1">
-      <c r="A8" s="9" t="s">
+      <c r="B13" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="1"/>
+    </row>
+    <row r="14" spans="1:9" ht="20" customHeight="1">
+      <c r="A14" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="7">
+        <v>45209</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="1"/>
+    </row>
+    <row r="15" spans="1:9" ht="26" customHeight="1">
+      <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="10">
-        <v>44564</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:9" ht="19" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="10">
-        <v>44692</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1">
-      <c r="A11" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:9" ht="19" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1">
-      <c r="A14" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="10">
-        <v>45209</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="1"/>
-    </row>
-    <row r="15" spans="1:9" ht="26" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="17">
+      <c r="B15" s="14">
         <v>45170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="6"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="3"/>
     </row>
     <row r="16" spans="1:9" ht="26" customHeight="1">
-      <c r="A16" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B16" s="17">
+      <c r="A16" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="14">
         <v>45255</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="6"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="3"/>
     </row>
     <row r="17" spans="1:9" ht="27" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" s="15" t="s">
-        <v>28</v>
+      <c r="A17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="13"/>
+      <c r="F17" s="10"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="6"/>
+      <c r="I17" s="3"/>
     </row>
     <row r="18" spans="1:9" ht="27" customHeight="1">
-      <c r="A18" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>31</v>
+      <c r="A18" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="10"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="13"/>
+      <c r="F18" s="10"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="6"/>
+      <c r="I18" s="3"/>
     </row>
     <row r="19" spans="1:9" ht="9" customHeight="1">
-      <c r="A19" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="8"/>
+      <c r="A19" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="5"/>
     </row>
     <row r="20" spans="1:9" ht="19" customHeight="1">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="11"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="A21" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
       <c r="I21" s="1"/>
     </row>
-    <row r="22" spans="1:9" ht="19" customHeight="1">
-      <c r="A22" s="29"/>
-      <c r="B22" s="27"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-      <c r="H22" s="28"/>
+    <row r="22" spans="1:9" ht="20" customHeight="1">
+      <c r="A22" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="9"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A23" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="12"/>
+    <row r="23" spans="1:9" ht="19" customHeight="1">
+      <c r="A23" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9">
-      <c r="A24" s="16"/>
+      <c r="A24" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" ht="15">
+      <c r="A26" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="9"/>
+      <c r="G27" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:H6"/>
+    <mergeCell ref="A19:H19"/>
+    <mergeCell ref="A23:H23"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="F3:H3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A6:H6"/>
-    <mergeCell ref="A19:H19"/>
-    <mergeCell ref="A22:H22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>